--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -672,9 +672,7 @@
       <c r="H3" s="8">
         <v>20000</v>
       </c>
-      <c r="I3" s="8">
-        <v>2000000</v>
-      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -713,9 +711,7 @@
       <c r="H4" s="8">
         <v>100000</v>
       </c>
-      <c r="I4" s="8">
-        <v>20000000</v>
-      </c>
+      <c r="I4" s="8"/>
       <c r="J4" s="2">
         <v>1</v>
       </c>

--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="L3" s="2">
         <v>999999</v>

--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -670,14 +670,14 @@
         <v>2</v>
       </c>
       <c r="H3" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="2">
         <v>999999</v>

--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -237,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +264,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +570,8 @@
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
-    <col min="8" max="10" width="22" style="2" customWidth="1"/>
+    <col min="8" max="9" width="22" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.875" style="2"/>
     <col min="13" max="13" width="72.375" style="2" bestFit="1" customWidth="1"/>
@@ -589,10 +600,10 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -630,8 +641,8 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
         <v>200000</v>
       </c>
       <c r="J2" s="2">
@@ -669,10 +680,12 @@
       <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="12">
         <v>10000</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="12">
+        <v>1000000</v>
+      </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -708,10 +721,12 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="12">
         <v>100000</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="12">
+        <v>200000000</v>
+      </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
@@ -747,10 +762,12 @@
       <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <v>1000000</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="12">
+        <v>800000000</v>
+      </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
@@ -783,10 +800,10 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="4">
-        <v>5000000</v>
-      </c>
-      <c r="I6" s="8"/>
+      <c r="H6" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -802,8 +819,8 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
@@ -825,8 +842,8 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -834,8 +851,8 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -843,8 +860,8 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -852,8 +869,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -861,8 +878,8 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -870,8 +887,6 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -879,8 +894,8 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -888,8 +903,8 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -897,8 +912,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.2">
@@ -906,8 +921,6 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -915,8 +928,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -924,8 +937,8 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -933,8 +946,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -952,8 +965,8 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="4"/>
       <c r="M25" s="3"/>
     </row>
@@ -962,8 +975,8 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="4"/>
       <c r="M26" s="3"/>
     </row>
@@ -972,8 +985,6 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="M27" s="3"/>
     </row>
@@ -982,8 +993,8 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="4"/>
       <c r="M28" s="3"/>
     </row>
@@ -992,8 +1003,8 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -1001,8 +1012,8 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.2">
@@ -1019,8 +1030,8 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1028,8 +1039,8 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
@@ -1037,8 +1048,6 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1046,8 +1055,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1055,8 +1064,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1064,8 +1073,8 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="I3" s="12">
         <v>1000000</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L3" s="2">
         <v>999999</v>

--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,7 +573,7 @@
     <col min="8" max="9" width="22" style="13" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="2"/>
+    <col min="12" max="12" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="72.375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.875" style="2"/>
   </cols>
@@ -643,7 +643,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>19999</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -680,20 +680,18 @@
       <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="12">
-        <v>5000</v>
-      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="12">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>999999</v>
+        <v>499999</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>14</v>
@@ -730,11 +728,11 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
-        <v>1000000</v>
+      <c r="K4" s="12">
+        <v>500000</v>
       </c>
       <c r="L4" s="2">
-        <v>9999999</v>
+        <v>5999999</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
@@ -772,7 +770,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>10000000</v>
+        <v>6000000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>59999999</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>16</v>
@@ -808,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>17</v>

--- a/config_Release/fish3d_hall_config.xlsx
+++ b/config_Release/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="L3" s="2">
         <v>499999</v>
